--- a/resourcse/signup.xlsx
+++ b/resourcse/signup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gawish\git\Travels\resourcse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8ACF4D-5335-46CE-8F57-8808AED0F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE503A7-E04B-4267-9D6C-2E8A218C76A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Gawish</t>
   </si>
   <si>
-    <t>00588@gmail.com</t>
+    <t>0058828@gmail.com</t>
   </si>
 </sst>
 </file>
